--- a/tests/samples/Plate-Fluorescence-Bad2.xlsx
+++ b/tests/samples/Plate-Fluorescence-Bad2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakebeal/projects/BioTools/excel_process_validator/tests/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4786B-4CD2-1C45-9F0F-0CED6B6BC10C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319424E7-81C6-0E4F-9B80-73C82A189035}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1540" windowWidth="30560" windowHeight="17640" tabRatio="646" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="1540" windowWidth="30560" windowHeight="17640" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Particle standard curve" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
   <si>
     <t>Replicate 1</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>I've added a row here.</t>
   </si>
 </sst>
 </file>
@@ -3557,11 +3560,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3569,6 +3570,11 @@
     <col min="2" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
@@ -4942,7 +4948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
